--- a/demo/calendar12.xlsx
+++ b/demo/calendar12.xlsx
@@ -260,24 +260,26 @@
     </font>
     <font>
       <name val="Comic Sans MS"/>
-      <color rgb="00FF0000"/>
-      <sz val="20"/>
+      <color rgb="00000000"/>
+      <sz val="24"/>
+    </font>
+    <font>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Comic Sans MS"/>
-      <color rgb="00000000"/>
-      <sz val="20"/>
+      <color rgb="00FF0000"/>
+      <sz val="24"/>
     </font>
     <font>
       <name val="Comic Sans MS"/>
       <color rgb="000000FF"/>
-      <sz val="20"/>
+      <sz val="24"/>
     </font>
     <font>
       <color rgb="00FF0000"/>
-    </font>
-    <font>
-      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -343,25 +345,25 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -829,9 +831,9 @@
       <c r="G4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="10" t="n"/>
-      <c r="J4" s="10" t="n"/>
-      <c r="K4" s="10" t="n"/>
+      <c r="I4" s="11" t="n"/>
+      <c r="J4" s="11" t="n"/>
+      <c r="K4" s="11" t="n"/>
       <c r="L4" s="10" t="s">
         <v>18</v>
       </c>
@@ -844,9 +846,9 @@
       <c r="O4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="10" t="n"/>
-      <c r="R4" s="10" t="n"/>
-      <c r="S4" s="10" t="n"/>
+      <c r="Q4" s="11" t="n"/>
+      <c r="R4" s="11" t="n"/>
+      <c r="S4" s="11" t="n"/>
       <c r="T4" s="10" t="s">
         <v>19</v>
       </c>
@@ -1083,7 +1085,7 @@
       <c r="J8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>28</v>
       </c>
       <c r="L8" s="12" t="s">
@@ -1307,10 +1309,10 @@
       <c r="C12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="10" t="n"/>
-      <c r="E12" s="10" t="n"/>
-      <c r="F12" s="10" t="n"/>
-      <c r="G12" s="10" t="n"/>
+      <c r="D12" s="11" t="n"/>
+      <c r="E12" s="11" t="n"/>
+      <c r="F12" s="11" t="n"/>
+      <c r="G12" s="11" t="n"/>
       <c r="I12" s="10" t="s">
         <v>42</v>
       </c>
@@ -1320,10 +1322,10 @@
       <c r="K12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L12" s="10" t="n"/>
-      <c r="M12" s="10" t="n"/>
-      <c r="N12" s="10" t="n"/>
-      <c r="O12" s="10" t="n"/>
+      <c r="L12" s="11" t="n"/>
+      <c r="M12" s="11" t="n"/>
+      <c r="N12" s="11" t="n"/>
+      <c r="O12" s="11" t="n"/>
       <c r="Q12" s="10" t="s">
         <v>41</v>
       </c>
@@ -1342,7 +1344,7 @@
       <c r="V12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="W12" s="10" t="n"/>
+      <c r="W12" s="11" t="n"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
@@ -1473,16 +1475,16 @@
       </c>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="10" t="n"/>
-      <c r="B19" s="10" t="n"/>
-      <c r="C19" s="10" t="n"/>
-      <c r="D19" s="10" t="n"/>
-      <c r="E19" s="10" t="n"/>
-      <c r="F19" s="10" t="n"/>
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="11" t="n"/>
+      <c r="C19" s="11" t="n"/>
+      <c r="D19" s="11" t="n"/>
+      <c r="E19" s="11" t="n"/>
+      <c r="F19" s="11" t="n"/>
       <c r="G19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="10" t="n"/>
+      <c r="I19" s="11" t="n"/>
       <c r="J19" s="10" t="s">
         <v>50</v>
       </c>
@@ -1501,10 +1503,10 @@
       <c r="O19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q19" s="10" t="n"/>
-      <c r="R19" s="10" t="n"/>
-      <c r="S19" s="10" t="n"/>
-      <c r="T19" s="10" t="n"/>
+      <c r="Q19" s="11" t="n"/>
+      <c r="R19" s="11" t="n"/>
+      <c r="S19" s="11" t="n"/>
+      <c r="T19" s="11" t="n"/>
       <c r="U19" s="10" t="s">
         <v>51</v>
       </c>
@@ -1996,9 +1998,9 @@
       <c r="L27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="10" t="n"/>
-      <c r="N27" s="10" t="n"/>
-      <c r="O27" s="10" t="n"/>
+      <c r="M27" s="11" t="n"/>
+      <c r="N27" s="11" t="n"/>
+      <c r="O27" s="11" t="n"/>
       <c r="Q27" s="10" t="s">
         <v>43</v>
       </c>
@@ -2017,7 +2019,7 @@
       <c r="V27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="W27" s="10" t="n"/>
+      <c r="W27" s="11" t="n"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="6" t="n">
@@ -2034,12 +2036,12 @@
       <c r="A29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="10" t="n"/>
-      <c r="C29" s="10" t="n"/>
-      <c r="D29" s="10" t="n"/>
-      <c r="E29" s="10" t="n"/>
-      <c r="F29" s="10" t="n"/>
-      <c r="G29" s="10" t="n"/>
+      <c r="B29" s="11" t="n"/>
+      <c r="C29" s="11" t="n"/>
+      <c r="D29" s="11" t="n"/>
+      <c r="E29" s="11" t="n"/>
+      <c r="F29" s="11" t="n"/>
+      <c r="G29" s="11" t="n"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="1" t="s">
@@ -2166,17 +2168,17 @@
       </c>
     </row>
     <row r="34" spans="1:23">
-      <c r="A34" s="10" t="n"/>
-      <c r="B34" s="10" t="n"/>
-      <c r="C34" s="10" t="n"/>
-      <c r="D34" s="10" t="n"/>
-      <c r="E34" s="10" t="n"/>
-      <c r="F34" s="10" t="n"/>
+      <c r="A34" s="11" t="n"/>
+      <c r="B34" s="11" t="n"/>
+      <c r="C34" s="11" t="n"/>
+      <c r="D34" s="11" t="n"/>
+      <c r="E34" s="11" t="n"/>
+      <c r="F34" s="11" t="n"/>
       <c r="G34" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I34" s="10" t="n"/>
-      <c r="J34" s="10" t="n"/>
+      <c r="I34" s="11" t="n"/>
+      <c r="J34" s="11" t="n"/>
       <c r="K34" s="10" t="s">
         <v>59</v>
       </c>
@@ -2192,11 +2194,11 @@
       <c r="O34" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q34" s="10" t="n"/>
-      <c r="R34" s="10" t="n"/>
-      <c r="S34" s="10" t="n"/>
-      <c r="T34" s="10" t="n"/>
-      <c r="U34" s="10" t="n"/>
+      <c r="Q34" s="11" t="n"/>
+      <c r="R34" s="11" t="n"/>
+      <c r="S34" s="11" t="n"/>
+      <c r="T34" s="11" t="n"/>
+      <c r="U34" s="11" t="n"/>
       <c r="V34" s="10" t="s">
         <v>60</v>
       </c>
@@ -2692,8 +2694,8 @@
       <c r="M42" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-      <c r="O42" s="10" t="n"/>
+      <c r="N42" s="11" t="n"/>
+      <c r="O42" s="11" t="n"/>
       <c r="Q42" s="10" t="s">
         <v>20</v>
       </c>
@@ -2743,18 +2745,18 @@
       <c r="B44" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="10" t="n"/>
-      <c r="D44" s="10" t="n"/>
-      <c r="E44" s="10" t="n"/>
-      <c r="F44" s="10" t="n"/>
-      <c r="G44" s="10" t="n"/>
-      <c r="Q44" s="10" t="n"/>
-      <c r="R44" s="10" t="n"/>
-      <c r="S44" s="10" t="n"/>
-      <c r="T44" s="10" t="n"/>
-      <c r="U44" s="10" t="n"/>
-      <c r="V44" s="10" t="n"/>
-      <c r="W44" s="10" t="n"/>
+      <c r="C44" s="11" t="n"/>
+      <c r="D44" s="11" t="n"/>
+      <c r="E44" s="11" t="n"/>
+      <c r="F44" s="11" t="n"/>
+      <c r="G44" s="11" t="n"/>
+      <c r="Q44" s="11" t="n"/>
+      <c r="R44" s="11" t="n"/>
+      <c r="S44" s="11" t="n"/>
+      <c r="T44" s="11" t="n"/>
+      <c r="U44" s="11" t="n"/>
+      <c r="V44" s="11" t="n"/>
+      <c r="W44" s="11" t="n"/>
     </row>
     <row r="46" spans="1:23">
       <c r="A46" s="1" t="s">
@@ -2912,9 +2914,9 @@
       <c r="G49" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I49" s="10" t="n"/>
-      <c r="J49" s="10" t="n"/>
-      <c r="K49" s="10" t="n"/>
+      <c r="I49" s="11" t="n"/>
+      <c r="J49" s="11" t="n"/>
+      <c r="K49" s="11" t="n"/>
       <c r="L49" s="10" t="s">
         <v>65</v>
       </c>
@@ -2927,11 +2929,11 @@
       <c r="O49" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Q49" s="10" t="n"/>
-      <c r="R49" s="10" t="n"/>
-      <c r="S49" s="10" t="n"/>
-      <c r="T49" s="10" t="n"/>
-      <c r="U49" s="10" t="n"/>
+      <c r="Q49" s="11" t="n"/>
+      <c r="R49" s="11" t="n"/>
+      <c r="S49" s="11" t="n"/>
+      <c r="T49" s="11" t="n"/>
+      <c r="U49" s="11" t="n"/>
       <c r="V49" s="10" t="s">
         <v>66</v>
       </c>
@@ -3392,10 +3394,10 @@
       <c r="C57" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="10" t="n"/>
-      <c r="E57" s="10" t="n"/>
-      <c r="F57" s="10" t="n"/>
-      <c r="G57" s="10" t="n"/>
+      <c r="D57" s="11" t="n"/>
+      <c r="E57" s="11" t="n"/>
+      <c r="F57" s="11" t="n"/>
+      <c r="G57" s="11" t="n"/>
       <c r="I57" s="10" t="s">
         <v>16</v>
       </c>
@@ -3411,8 +3413,8 @@
       <c r="M57" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-      <c r="O57" s="10" t="n"/>
+      <c r="N57" s="11" t="n"/>
+      <c r="O57" s="11" t="n"/>
       <c r="Q57" s="10" t="s">
         <v>14</v>
       </c>
@@ -3450,12 +3452,12 @@
       <c r="Q59" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="R59" s="10" t="n"/>
-      <c r="S59" s="10" t="n"/>
-      <c r="T59" s="10" t="n"/>
-      <c r="U59" s="10" t="n"/>
-      <c r="V59" s="10" t="n"/>
-      <c r="W59" s="10" t="n"/>
+      <c r="R59" s="11" t="n"/>
+      <c r="S59" s="11" t="n"/>
+      <c r="T59" s="11" t="n"/>
+      <c r="U59" s="11" t="n"/>
+      <c r="V59" s="11" t="n"/>
+      <c r="W59" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
